--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A4D2F-B4D6-40F7-9C6B-FA39C937B0E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA59503-B5F1-4C7D-86DF-177AE38F9506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>初始技能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2001,3001,3002,3003,4001,5001,5002,5003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonSkillList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -657,11 +669,12 @@
     <col min="12" max="12" width="14.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="51.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -705,10 +718,13 @@
         <v>70</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +770,11 @@
       <c r="O2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -799,10 +818,13 @@
         <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -846,10 +868,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -893,10 +918,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -940,10 +968,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -987,10 +1018,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -1034,10 +1068,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -1068,7 +1105,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -1099,7 +1136,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -1130,7 +1167,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
@@ -1161,7 +1198,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
@@ -1192,7 +1229,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
@@ -1223,7 +1260,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
@@ -1254,7 +1291,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>

--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA59503-B5F1-4C7D-86DF-177AE38F9506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A5CD9-7630-4E19-B1C9-6E008648C6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>commonSkillList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundNinja</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +658,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1424,15 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>

--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A5CD9-7630-4E19-B1C9-6E008648C6C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F3E55-17FC-4267-B10E-A70277BEBACA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,92 @@
   </si>
   <si>
     <t>SoundNinja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skpGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mudGrowth</t>
+  </si>
+  <si>
+    <t>mrgGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dexGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemNumGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点数成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动力成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷度成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍具数量成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查克拉成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2001,3001,3002,3003,4001,5001,5002,5003]</t>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -679,10 +765,20 @@
     <col min="14" max="14" width="14.125" customWidth="1"/>
     <col min="15" max="15" width="51.125" style="2" customWidth="1"/>
     <col min="16" max="16" width="21.375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="15.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,8 +827,38 @@
       <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +907,38 @@
       <c r="P2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -831,8 +987,38 @@
       <c r="P3" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -881,8 +1067,28 @@
       <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -931,8 +1137,28 @@
       <c r="P5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -981,8 +1207,28 @@
       <c r="P6" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -1031,8 +1277,28 @@
       <c r="P7" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>9</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -1081,8 +1347,28 @@
       <c r="P8" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>11</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -1112,8 +1398,30 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="O9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -1143,8 +1451,30 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="O10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -1174,8 +1504,30 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="O11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
@@ -1205,8 +1557,30 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="O12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
@@ -1236,8 +1610,30 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="O13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
@@ -1267,8 +1663,30 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
+      <c r="O14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
@@ -1298,8 +1716,30 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+      <c r="O15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
@@ -1329,8 +1769,30 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="O16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1014</v>
       </c>
@@ -1360,8 +1822,30 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="O17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
@@ -1391,8 +1875,30 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="O18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1016</v>
       </c>
@@ -1422,8 +1928,30 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+      <c r="O19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -1433,15 +1961,48 @@
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>450</v>
+      </c>
+      <c r="F20" s="1">
+        <v>150</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>15</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107F3E55-17FC-4267-B10E-A70277BEBACA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CA34B-E8D4-4EDE-8509-38CD18EE3FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2001,3001,3002,3003,4001,5001,5002,5003]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通用技能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +386,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2001,3001,3002,3003,4001,5001,5002,5003]</t>
-  </si>
-  <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2001,3001,3003,4001,5001,5002,5003]</t>
+  </si>
+  <si>
+    <t>[2001,3001,3003,4001,5001,5002,5003]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +744,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -822,40 +822,40 @@
         <v>70</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -982,40 +982,40 @@
         <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>65</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>66</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>67</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>68</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>69</v>
@@ -1402,7 +1402,7 @@
         <v>96</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1508,7 +1508,7 @@
         <v>96</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1561,7 +1561,7 @@
         <v>96</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1614,7 +1614,7 @@
         <v>96</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1667,7 +1667,7 @@
         <v>96</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1720,7 +1720,7 @@
         <v>96</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1773,7 +1773,7 @@
         <v>96</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1826,7 +1826,7 @@
         <v>96</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1879,7 +1879,7 @@
         <v>96</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1932,7 +1932,7 @@
         <v>96</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1956,10 +1956,10 @@
         <v>2001</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>

--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CA34B-E8D4-4EDE-8509-38CD18EE3FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4961EBBA-0739-4B12-8A12-AE30D749D99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,37 @@
   </si>
   <si>
     <t>[2001,3001,3003,4001,5001,5002,5003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrowPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0,"y":1.1,"z":0}</t>
+  </si>
+  <si>
+    <t>{"x":0,"y":1.1,"z":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0,"y":1.25,"z":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0,"y":1.3,"z":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"x":0,"y":1.25,"z":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,13 +769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -775,10 +806,11 @@
     <col min="24" max="24" width="14.5" style="2" customWidth="1"/>
     <col min="25" max="25" width="14.375" style="2" customWidth="1"/>
     <col min="26" max="26" width="17" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="27" max="27" width="25.75" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,8 +889,11 @@
       <c r="Z1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,8 +972,11 @@
       <c r="Z2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1017,8 +1055,11 @@
       <c r="Z3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1087,8 +1128,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -1157,8 +1201,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -1227,8 +1274,11 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
+      <c r="AA6" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -1297,8 +1347,11 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
+      <c r="AA7" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -1367,8 +1420,11 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -1420,8 +1476,11 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -1473,8 +1532,11 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -1526,8 +1588,11 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
@@ -1579,8 +1644,11 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
@@ -1632,8 +1700,11 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
@@ -1685,8 +1756,11 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
@@ -1738,8 +1812,11 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
@@ -1791,8 +1868,11 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1014</v>
       </c>
@@ -1844,8 +1924,11 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
@@ -1897,8 +1980,11 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1016</v>
       </c>
@@ -1950,8 +2036,11 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2001</v>
       </c>

--- a/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/CharacterInfo-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4961EBBA-0739-4B12-8A12-AE30D749D99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3102A89-7565-4861-88F3-179A259136C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1605" windowWidth="22035" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>{"x":0,"y":1.25,"z":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialIdentity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -807,10 +815,11 @@
     <col min="25" max="25" width="14.375" style="2" customWidth="1"/>
     <col min="26" max="26" width="17" style="2" customWidth="1"/>
     <col min="27" max="27" width="25.75" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="28" max="28" width="29" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -892,8 +901,11 @@
       <c r="AA1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,8 +987,11 @@
       <c r="AA2" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,8 +1073,11 @@
       <c r="AA3" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1131,8 +1149,11 @@
       <c r="AA4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="AB4" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -1204,8 +1225,11 @@
       <c r="AA5" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="AB5" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -1277,8 +1301,11 @@
       <c r="AA6" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="AB6" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -1350,8 +1377,11 @@
       <c r="AA7" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="AB7" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -1423,8 +1453,11 @@
       <c r="AA8" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="AB8" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -1479,8 +1512,11 @@
       <c r="AA9" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB9" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -1535,8 +1571,11 @@
       <c r="AA10" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB10" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -1591,8 +1630,11 @@
       <c r="AA11" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB11" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
@@ -1647,8 +1689,11 @@
       <c r="AA12" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB12" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
@@ -1703,8 +1748,11 @@
       <c r="AA13" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB13" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
@@ -1759,8 +1807,11 @@
       <c r="AA14" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB14" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
@@ -1815,8 +1866,11 @@
       <c r="AA15" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB15" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
@@ -1871,8 +1925,11 @@
       <c r="AA16" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB16" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1014</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="AA17" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AB17" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
@@ -1981,10 +2041,13 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1016</v>
       </c>
@@ -2037,10 +2100,13 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2001</v>
       </c>
@@ -2088,10 +2154,25 @@
       </c>
       <c r="P20" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
